--- a/results/mp/logistic/corona/confidence/42/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,24 +40,15 @@
     <t>name</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -79,91 +70,94 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>special</t>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>data</t>
   </si>
   <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -521,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +523,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.7602739726027398</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,31 +602,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>70</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="L3">
+        <v>55</v>
+      </c>
+      <c r="M3">
+        <v>55</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>4</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3">
-        <v>0.9782608695652174</v>
-      </c>
-      <c r="L3">
-        <v>45</v>
-      </c>
-      <c r="M3">
-        <v>45</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.773972602739726</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C4">
-        <v>226</v>
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>226</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.95</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7105263157894737</v>
+        <v>0.4515503875968992</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4444444444444444</v>
+        <v>0.3288590604026846</v>
       </c>
       <c r="C6">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K6">
         <v>0.8660714285714286</v>
@@ -790,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4341085271317829</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="C7">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>292</v>
+        <v>218</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.839622641509434</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L7">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M7">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.423728813559322</v>
+        <v>0.1072386058981233</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.835509138381201</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,37 +884,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2550335570469799</v>
+        <v>0.01590392729633236</v>
       </c>
       <c r="C9">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>111</v>
+        <v>3032</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>311</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>311</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,37 +934,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1388888888888889</v>
+        <v>0.01558809636277752</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>217</v>
+        <v>2084</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.81875</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,87 +984,63 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.08847184986595175</v>
+        <v>0.01015550618851158</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.39</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>340</v>
+        <v>3119</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L11">
         <v>29</v>
       </c>
-      <c r="K11">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L11">
+      <c r="M11">
+        <v>29</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M11">
-        <v>27</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.01458198314970836</v>
-      </c>
-      <c r="C12">
-        <v>45</v>
-      </c>
-      <c r="D12">
+      <c r="K12">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L12">
         <v>66</v>
       </c>
-      <c r="E12">
-        <v>0.32</v>
-      </c>
-      <c r="F12">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>3041</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0.8170731707317073</v>
-      </c>
-      <c r="L12">
-        <v>67</v>
-      </c>
       <c r="M12">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1082,95 +1052,47 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.01421127427759356</v>
-      </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-      <c r="D13">
-        <v>62</v>
-      </c>
-      <c r="E13">
-        <v>0.52</v>
-      </c>
-      <c r="F13">
-        <v>0.48</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>2081</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.8</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.00919175911251981</v>
-      </c>
-      <c r="C14">
+      <c r="J14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14">
-        <v>75</v>
-      </c>
-      <c r="E14">
-        <v>0.61</v>
-      </c>
-      <c r="F14">
-        <v>0.39</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>3126</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K14">
-        <v>0.7890625</v>
+        <v>0.775</v>
       </c>
       <c r="L14">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="M14">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,21 +1104,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1208,47 +1130,47 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16">
+        <v>0.7605633802816901</v>
+      </c>
+      <c r="L16">
+        <v>108</v>
+      </c>
+      <c r="M16">
+        <v>108</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>34</v>
-      </c>
-      <c r="K16">
-        <v>0.76</v>
-      </c>
-      <c r="L16">
-        <v>38</v>
-      </c>
-      <c r="M16">
-        <v>38</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17">
+        <v>0.7446808510638298</v>
+      </c>
+      <c r="L17">
         <v>35</v>
       </c>
-      <c r="K17">
-        <v>0.7535211267605634</v>
-      </c>
-      <c r="L17">
-        <v>107</v>
-      </c>
       <c r="M17">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1260,21 +1182,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.7301587301587301</v>
+        <v>0.7421875</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1286,21 +1208,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.723404255319149</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1312,21 +1234,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.7</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1338,12 +1260,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K21">
         <v>0.6976744186046512</v>
@@ -1369,16 +1291,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6470588235294118</v>
+        <v>0.65</v>
       </c>
       <c r="L22">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1390,21 +1312,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5899581589958159</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L23">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="M23">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1416,21 +1338,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5864406779661017</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L24">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="M24">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1442,21 +1364,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>122</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.574468085106383</v>
+        <v>0.6033898305084746</v>
       </c>
       <c r="L25">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="M25">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1468,21 +1390,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5714285714285714</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1494,21 +1416,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5538461538461539</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1520,21 +1442,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.550561797752809</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L28">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1546,21 +1468,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4901960784313725</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1572,21 +1494,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.3972602739726027</v>
+        <v>0.4385964912280702</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1598,21 +1520,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1624,47 +1546,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.01514434453383814</v>
+        <v>0.02885682574916759</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N32">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>2081</v>
+        <v>875</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K33">
-        <v>0.01450189155107188</v>
+        <v>0.01577784790154623</v>
       </c>
       <c r="L33">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M33">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N33">
         <v>0.61</v>
@@ -1676,7 +1598,59 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>3126</v>
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34">
+        <v>0.01232227488151659</v>
+      </c>
+      <c r="L34">
+        <v>26</v>
+      </c>
+      <c r="M34">
+        <v>59</v>
+      </c>
+      <c r="N34">
+        <v>0.44</v>
+      </c>
+      <c r="O34">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35">
+        <v>0.008502289077828646</v>
+      </c>
+      <c r="L35">
+        <v>26</v>
+      </c>
+      <c r="M35">
+        <v>75</v>
+      </c>
+      <c r="N35">
+        <v>0.35</v>
+      </c>
+      <c r="O35">
+        <v>0.65</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>3032</v>
       </c>
     </row>
   </sheetData>
